--- a/export_iar.xlsx
+++ b/export_iar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Appendix 62</t>
   </si>
@@ -32,25 +32,25 @@
     <t xml:space="preserve"> Supplier : </t>
   </si>
   <si>
-    <t xml:space="preserve">Twis Trading </t>
+    <t>Agile Techfrontier Corp.</t>
   </si>
   <si>
     <t>IAR No. :</t>
   </si>
   <si>
-    <t>2020-104</t>
+    <t>2022-05-0001</t>
   </si>
   <si>
     <t xml:space="preserve"> PO No./Date : </t>
   </si>
   <si>
-    <t>2020-06-0084 / 2020-06-26</t>
+    <t>2022-05-0005 / 2022-05-24</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>07/10/2020</t>
+    <t>05/04/2022</t>
   </si>
   <si>
     <t xml:space="preserve"> Requisitioning Office/Dept. : </t>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Date :</t>
+  </si>
+  <si>
+    <t>05/25/2022</t>
   </si>
   <si>
     <t>Stock/ 
@@ -81,142 +84,14 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signpen (black 0.5)
-</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign Pen, Blue
-</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>E013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 664 Black
-</t>
-  </si>
-  <si>
-    <t>bottle</t>
-  </si>
-  <si>
-    <t>E016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 664  Yellow
-</t>
-  </si>
-  <si>
-    <t>E014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 664 Cyan
-</t>
-  </si>
-  <si>
-    <t>E015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 664 Magenta
-</t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon Ink 790 - Black
-</t>
-  </si>
-  <si>
-    <t>C005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon Ink 790 - Cyan
-</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon Ink 790 - Yellow
-</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon Ink 790 - Magenta
-</t>
-  </si>
-  <si>
-    <t>S1040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 001 Black
-</t>
-  </si>
-  <si>
-    <t>S1042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 001 Cyan
-</t>
-  </si>
-  <si>
-    <t>S1043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 001 Magenta
-</t>
-  </si>
-  <si>
-    <t>S1041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 001 Yellow
-</t>
-  </si>
-  <si>
-    <t>S1036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 003 Black
-</t>
-  </si>
-  <si>
-    <t>S1038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 003 Cyan
-</t>
-  </si>
-  <si>
-    <t>S1039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 003 Magenta
-</t>
-  </si>
-  <si>
-    <t>S1037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson Ink 003 Yellow
-</t>
-  </si>
-  <si>
-    <t>CAMILLE T. RONQUILLO</t>
+    <t>S3574</t>
+  </si>
+  <si>
+    <t>Vulcanize flat tire
+lorem ipsum</t>
+  </si>
+  <si>
+    <t>lot</t>
   </si>
   <si>
     <t>BEZALEEL O. SOLTURA</t>
@@ -463,14 +338,14 @@
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -479,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -618,20 +493,38 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -687,7 +580,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2905125" cy="762000"/>
@@ -717,7 +610,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2781300" cy="857250"/>
@@ -1039,7 +932,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1163,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="18">
-        <v>4277</v>
+        <v>5454</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="22"/>
@@ -1178,7 +1071,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="22"/>
@@ -1194,17 +1087,17 @@
     </row>
     <row r="13" spans="1:8" customHeight="1" ht="28.9">
       <c r="A13" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="22"/>
@@ -1212,404 +1105,295 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="40">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="40">
-        <v>100</v>
-      </c>
-      <c r="F15" s="45"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="2"/>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="40">
-        <v>14</v>
-      </c>
-      <c r="F16" s="45"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="2"/>
+      <c r="H16"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="40">
-        <v>7</v>
-      </c>
-      <c r="F17" s="45"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="31"/>
+      <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="40">
-        <v>7</v>
-      </c>
-      <c r="F18" s="45"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="2"/>
+      <c r="H18"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="40">
-        <v>7</v>
-      </c>
-      <c r="F19" s="45"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="2"/>
+      <c r="H19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="40">
-        <v>14</v>
-      </c>
-      <c r="F20" s="45"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="2"/>
+      <c r="H20"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="40">
-        <v>7</v>
-      </c>
-      <c r="F21" s="45"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="2"/>
+      <c r="H21"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="40">
-        <v>7</v>
-      </c>
-      <c r="F22" s="45"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="2"/>
+      <c r="H22"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="40">
-        <v>7</v>
-      </c>
-      <c r="F23" s="45"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="2"/>
+      <c r="H23"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="40">
-        <v>2</v>
-      </c>
-      <c r="F24" s="45"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="2"/>
+      <c r="H24"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="40">
-        <v>1</v>
-      </c>
-      <c r="F25" s="45"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="2"/>
+      <c r="H25"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="40">
-        <v>1</v>
-      </c>
-      <c r="F26" s="45"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="2"/>
+      <c r="H26"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="40">
-        <v>1</v>
-      </c>
-      <c r="F27" s="45"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="2"/>
+      <c r="H27"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="40">
-        <v>14</v>
-      </c>
-      <c r="F28" s="45"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="2"/>
+      <c r="H28"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="40">
-        <v>7</v>
-      </c>
-      <c r="F29" s="45"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="2"/>
+      <c r="H29"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="40">
-        <v>7</v>
-      </c>
-      <c r="F30" s="45"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="40">
-        <v>7</v>
-      </c>
-      <c r="F31" s="45"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="47"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="43"/>
       <c r="C32" s="27"/>
       <c r="D32" s="32"/>
-      <c r="E32" s="46"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="47"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="43"/>
       <c r="C33" s="27"/>
       <c r="D33" s="32"/>
-      <c r="E33" s="46"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="47"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="43"/>
       <c r="C34" s="27"/>
       <c r="D34" s="32"/>
-      <c r="E34" s="46"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="47"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="43"/>
       <c r="C35" s="27"/>
       <c r="D35" s="32"/>
-      <c r="E35" s="46"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="47"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="43"/>
       <c r="C36" s="27"/>
       <c r="D36" s="32"/>
-      <c r="E36" s="46"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="47"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="43"/>
       <c r="C37" s="27"/>
       <c r="D37" s="32"/>
-      <c r="E37" s="46"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="47"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="43"/>
       <c r="C38" s="27"/>
       <c r="D38" s="32"/>
-      <c r="E38" s="46"/>
+      <c r="E38" s="53"/>
       <c r="F38" s="28"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="47"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="43"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="46"/>
+      <c r="D39" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="53"/>
       <c r="F39" s="28"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="47"/>
+      <c r="A40" s="58" t="s">
+        <v>26</v>
+      </c>
       <c r="B40" s="43"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="46"/>
+      <c r="D40" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="53"/>
       <c r="F40" s="28"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="52" t="s">
-        <v>60</v>
-      </c>
+      <c r="A41" s="55"/>
       <c r="B41" s="43"/>
       <c r="C41" s="27"/>
-      <c r="D41" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="46"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="53"/>
       <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="46"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="57"/>
       <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="47"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="32"/>
-      <c r="E43" s="46"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="28"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="48"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="51"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:8">
@@ -2029,10 +1813,10 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
